--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="161">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,33 +49,24 @@
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -85,31 +76,31 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>beautifully</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>delicious</t>
+    <t>thank</t>
   </si>
   <si>
     <t>fantastic</t>
@@ -118,385 +109,385 @@
     <t>beautiful</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>son</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>mas</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sauce</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>garlic</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>bun</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>everyday</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>handy</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>cooks</t>
   </si>
   <si>
-    <t>ever</t>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>decor</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>mas</t>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>baking</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>exactly</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>easier</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
-    <t>anyone</t>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>far</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>peel</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>food</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>job</t>
   </si>
   <si>
     <t>purchase</t>
   </si>
   <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>sharp</t>
-  </si>
-  <si>
-    <t>job</t>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>got</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
-    <t>better</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>handle</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>work</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>item</t>
   </si>
   <si>
     <t>product</t>
@@ -871,10 +862,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -932,13 +923,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -950,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -974,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -982,13 +973,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6296296296296297</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1000,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1024,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1032,13 +1023,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.625</v>
+        <v>0.675</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1050,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.956989247311828</v>
+        <v>0.90625</v>
       </c>
       <c r="L5">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1074,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1082,13 +1073,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4716981132075472</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1100,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8828125</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1124,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1132,13 +1123,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3720930232558139</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1150,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.85</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1174,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1182,37 +1173,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3333333333333333</v>
+        <v>0.34</v>
       </c>
       <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>33</v>
       </c>
-      <c r="D8">
-        <v>33</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>66</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8560371517027864</v>
+        <v>0.8498452012383901</v>
       </c>
       <c r="L8">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M8">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1224,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1232,13 +1223,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1253,7 +1244,7 @@
         <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K9">
         <v>0.8478260869565217</v>
@@ -1282,13 +1273,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2794117647058824</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1300,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L10">
         <v>16</v>
@@ -1324,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1332,37 +1323,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2692307692307692</v>
+        <v>0.1782178217821782</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1374,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1382,13 +1373,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1777777777777778</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1400,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K12">
         <v>0.7692307692307693</v>
@@ -1432,13 +1423,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1568627450980392</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
         <v>16</v>
-      </c>
-      <c r="D13">
-        <v>17</v>
       </c>
       <c r="E13">
         <v>0.06</v>
@@ -1450,169 +1441,97 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L13">
+        <v>32</v>
+      </c>
+      <c r="M13">
+        <v>32</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L14">
+        <v>55</v>
+      </c>
+      <c r="M14">
+        <v>55</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>0.6983050847457627</v>
+      </c>
+      <c r="L15">
+        <v>206</v>
+      </c>
+      <c r="M15">
+        <v>206</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K13">
-        <v>0.75</v>
-      </c>
-      <c r="L13">
-        <v>33</v>
-      </c>
-      <c r="M13">
-        <v>33</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1440677966101695</v>
-      </c>
-      <c r="C14">
-        <v>17</v>
-      </c>
-      <c r="D14">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>101</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="L14">
-        <v>33</v>
-      </c>
-      <c r="M14">
-        <v>33</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.1135135135135135</v>
-      </c>
-      <c r="C15">
-        <v>21</v>
-      </c>
-      <c r="D15">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>164</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L15">
-        <v>56</v>
-      </c>
-      <c r="M15">
-        <v>56</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>180</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K16">
-        <v>0.7229437229437229</v>
+        <v>0.6926406926406926</v>
       </c>
       <c r="L16">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M16">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1624,21 +1543,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.704225352112676</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1650,21 +1569,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.6983050847457627</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L18">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1676,21 +1595,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.673469387755102</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1702,21 +1621,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.671875</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>812</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>812</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1728,21 +1647,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>21</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21">
+        <v>0.640625</v>
+      </c>
+      <c r="L21">
         <v>41</v>
       </c>
-      <c r="K21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L21">
-        <v>18</v>
-      </c>
       <c r="M21">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1754,21 +1673,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="L22">
         <v>42</v>
       </c>
-      <c r="K22">
-        <v>0.6575342465753424</v>
-      </c>
-      <c r="L22">
-        <v>48</v>
-      </c>
       <c r="M22">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1780,21 +1699,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.6538461538461539</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1806,21 +1725,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.6458333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1832,21 +1751,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.6412520064205457</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L25">
-        <v>799</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>799</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1858,21 +1777,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>447</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.6410256410256411</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1884,21 +1803,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.6285714285714286</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1910,21 +1829,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.6176470588235294</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1941,16 +1860,16 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.6153846153846154</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1962,21 +1881,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.6142857142857143</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1988,21 +1907,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L31">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2014,21 +1933,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2040,21 +1959,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.5972222222222222</v>
+        <v>0.5748502994011976</v>
       </c>
       <c r="L33">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="M33">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2066,21 +1985,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.5964912280701754</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2092,21 +2011,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.5882352941176471</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2118,21 +2037,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.5873015873015873</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="M36">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2144,21 +2063,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.5769230769230769</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2170,21 +2089,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.562874251497006</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L38">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2196,21 +2115,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.5576923076923077</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L39">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2222,21 +2141,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.5538461538461539</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2248,15 +2167,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.5517241379310345</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L41">
         <v>16</v>
@@ -2274,21 +2193,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.55</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="M42">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2300,21 +2219,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.5421686746987951</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L43">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M43">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2326,21 +2245,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.5230769230769231</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="L44">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="M44">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2352,21 +2271,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L45">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M45">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2378,21 +2297,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.4957264957264957</v>
+        <v>0.48</v>
       </c>
       <c r="L46">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M46">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2404,21 +2323,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.4897959183673469</v>
+        <v>0.475</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2430,21 +2349,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K48">
         <v>0.4736842105263158</v>
       </c>
       <c r="L48">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2456,21 +2375,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K49">
-        <v>0.4722222222222222</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2482,21 +2401,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K50">
-        <v>0.47</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L50">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="M50">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2508,21 +2427,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K51">
-        <v>0.4615384615384616</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L51">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2534,21 +2453,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K52">
-        <v>0.4545454545454545</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2560,21 +2479,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K53">
-        <v>0.4444444444444444</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2586,21 +2505,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K54">
-        <v>0.4411764705882353</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L54">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2612,21 +2531,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K55">
-        <v>0.4397590361445783</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L55">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2638,21 +2557,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K56">
-        <v>0.4390243902439024</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2664,21 +2583,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K57">
-        <v>0.4354838709677419</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L57">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2690,21 +2609,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K58">
-        <v>0.4320987654320987</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L58">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M58">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2716,47 +2635,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K59">
-        <v>0.4262295081967213</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="L59">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M59">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K60">
-        <v>0.4130434782608696</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="L60">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M60">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2768,21 +2687,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K61">
-        <v>0.4107142857142857</v>
+        <v>0.4007782101167315</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2794,21 +2713,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>33</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K62">
-        <v>0.4078947368421053</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L62">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M62">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2820,21 +2739,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K63">
-        <v>0.4046692607003891</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="L63">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="M63">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2846,47 +2765,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>153</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K64">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="L64">
+        <v>49</v>
+      </c>
+      <c r="M64">
+        <v>49</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
         <v>84</v>
-      </c>
-      <c r="K64">
-        <v>0.3897058823529412</v>
-      </c>
-      <c r="L64">
-        <v>159</v>
-      </c>
-      <c r="M64">
-        <v>159</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>249</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K65">
-        <v>0.3873873873873874</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L65">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2898,21 +2817,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K66">
-        <v>0.3833333333333334</v>
+        <v>0.3651960784313725</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2924,21 +2843,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>37</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K67">
-        <v>0.3708609271523179</v>
+        <v>0.3520547945205479</v>
       </c>
       <c r="L67">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="M67">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2950,21 +2869,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>95</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K68">
-        <v>0.3616438356164384</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L68">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2976,12 +2895,12 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>466</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K69">
         <v>0.3454545454545455</v>
@@ -3007,16 +2926,16 @@
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K70">
-        <v>0.3453237410071943</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L70">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M70">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3028,21 +2947,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K71">
-        <v>0.3452380952380952</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="L71">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M71">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3054,21 +2973,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K72">
-        <v>0.3333333333333333</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L72">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M72">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3080,21 +2999,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K73">
-        <v>0.3308270676691729</v>
+        <v>0.3110047846889952</v>
       </c>
       <c r="L73">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="M73">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3106,21 +3025,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>89</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K74">
-        <v>0.3260869565217391</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M74">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3132,21 +3051,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K75">
-        <v>0.3194444444444444</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L75">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M75">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3158,21 +3077,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K76">
-        <v>0.3191489361702128</v>
+        <v>0.2952380952380952</v>
       </c>
       <c r="L76">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M76">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3184,21 +3103,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K77">
-        <v>0.3014354066985646</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L77">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="M77">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3210,21 +3129,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>146</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K78">
-        <v>0.2916666666666667</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L78">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M78">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3236,21 +3155,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K79">
-        <v>0.2772277227722773</v>
+        <v>0.2626480086114101</v>
       </c>
       <c r="L79">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="M79">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3262,21 +3181,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>73</v>
+        <v>685</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K80">
-        <v>0.2612612612612613</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="L80">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M80">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3288,47 +3207,47 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K81">
-        <v>0.2508073196986007</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="L81">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="M81">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>696</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K82">
-        <v>0.2352941176470588</v>
+        <v>0.2582781456953642</v>
       </c>
       <c r="L82">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M82">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3340,21 +3259,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K83">
-        <v>0.2351097178683386</v>
+        <v>0.25</v>
       </c>
       <c r="L83">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="M83">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3366,21 +3285,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>244</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K84">
-        <v>0.234375</v>
+        <v>0.25</v>
       </c>
       <c r="L84">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M84">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3392,21 +3311,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K85">
-        <v>0.234375</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="L85">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M85">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3418,21 +3337,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K86">
-        <v>0.2340153452685422</v>
+        <v>0.234375</v>
       </c>
       <c r="L86">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="M86">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3444,73 +3363,73 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>599</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K87">
-        <v>0.2321428571428572</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L87">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M87">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N87">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K88">
-        <v>0.2282608695652174</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L88">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="M88">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>71</v>
+        <v>600</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K89">
-        <v>0.2272727272727273</v>
+        <v>0.2282608695652174</v>
       </c>
       <c r="L89">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M89">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3522,21 +3441,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K90">
-        <v>0.2264900662251656</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="L90">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="M90">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3548,21 +3467,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>584</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K91">
-        <v>0.225609756097561</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L91">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M91">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3574,12 +3493,12 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>127</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K92">
         <v>0.2214765100671141</v>
@@ -3605,16 +3524,16 @@
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K93">
-        <v>0.2018348623853211</v>
+        <v>0.2198675496688742</v>
       </c>
       <c r="L93">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="M93">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3626,21 +3545,21 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>87</v>
+        <v>589</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K94">
-        <v>0.2</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L94">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M94">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3652,21 +3571,21 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K95">
-        <v>0.2</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="L95">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M95">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3678,21 +3597,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K96">
-        <v>0.2</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L96">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M96">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3704,21 +3623,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>68</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K97">
-        <v>0.1965811965811966</v>
+        <v>0.2</v>
       </c>
       <c r="L97">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M97">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3730,21 +3649,21 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K98">
-        <v>0.1935483870967742</v>
+        <v>0.1943573667711599</v>
       </c>
       <c r="L98">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="M98">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3756,41 +3675,41 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>75</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K99">
-        <v>0.1864864864864865</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="L99">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="M99">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="N99">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>301</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K100">
-        <v>0.1818181818181818</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="L100">
         <v>16</v>
@@ -3808,21 +3727,21 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K101">
-        <v>0.1807228915662651</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L101">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M101">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3834,47 +3753,47 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K102">
-        <v>0.1751412429378531</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="L102">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M102">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102">
-        <v>146</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K103">
-        <v>0.1744186046511628</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="L103">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M103">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3886,21 +3805,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K104">
-        <v>0.1742243436754177</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="L104">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="M104">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3912,21 +3831,21 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>346</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K105">
-        <v>0.1721311475409836</v>
+        <v>0.1694510739856802</v>
       </c>
       <c r="L105">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="M105">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3938,21 +3857,21 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>101</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K106">
-        <v>0.1717171717171717</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L106">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M106">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3964,47 +3883,47 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K107">
-        <v>0.1703703703703704</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L107">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M107">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N107">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O107">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>224</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K108">
-        <v>0.1656441717791411</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L108">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="M108">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -4016,21 +3935,21 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>136</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K109">
-        <v>0.1644736842105263</v>
+        <v>0.1576354679802956</v>
       </c>
       <c r="L109">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="M109">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -4042,47 +3961,47 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>381</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K110">
-        <v>0.1635687732342007</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="L110">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="M110">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N110">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>225</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K111">
-        <v>0.1615384615384615</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="L111">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M111">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -4094,21 +4013,21 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>109</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K112">
-        <v>0.1590909090909091</v>
+        <v>0.1545454545454545</v>
       </c>
       <c r="L112">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M112">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -4120,47 +4039,47 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K113">
-        <v>0.1492537313432836</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="L113">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M113">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="N113">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O113">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>171</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K114">
-        <v>0.1374045801526718</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="L114">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M114">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -4172,21 +4091,21 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>113</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K115">
-        <v>0.1313868613138686</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="L115">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="M115">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -4198,21 +4117,21 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>357</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K116">
-        <v>0.125</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="L116">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M116">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -4224,21 +4143,21 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>140</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K117">
-        <v>0.124031007751938</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L117">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M117">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -4250,21 +4169,21 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>113</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K118">
-        <v>0.1218487394957983</v>
+        <v>0.1330645161290323</v>
       </c>
       <c r="L118">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M118">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -4276,47 +4195,47 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K119">
-        <v>0.1212121212121212</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="L119">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M119">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O119">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K120">
-        <v>0.119047619047619</v>
+        <v>0.1298701298701299</v>
       </c>
       <c r="L120">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M120">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -4328,21 +4247,21 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K121">
-        <v>0.1168384879725086</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L121">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M121">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4354,21 +4273,21 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K122">
-        <v>0.108974358974359</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="L122">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M122">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -4380,21 +4299,21 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>139</v>
+        <v>183</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K123">
-        <v>0.1060606060606061</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="L123">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M123">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -4406,21 +4325,21 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K124">
-        <v>0.1057692307692308</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L124">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M124">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -4432,47 +4351,47 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>186</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K125">
-        <v>0.1013513513513514</v>
+        <v>0.1068493150684932</v>
       </c>
       <c r="L125">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M125">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N125">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q125">
-        <v>133</v>
+        <v>326</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K126">
-        <v>0.09677419354838709</v>
+        <v>0.1045751633986928</v>
       </c>
       <c r="L126">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M126">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -4484,47 +4403,47 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>224</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K127">
-        <v>0.09379509379509379</v>
+        <v>0.1038353601496726</v>
       </c>
       <c r="L127">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="M127">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="N127">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O127">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P127" t="b">
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>628</v>
+        <v>958</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K128">
-        <v>0.0918918918918919</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L128">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M128">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -4536,21 +4455,21 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K129">
-        <v>0.08883248730964467</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="L129">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M129">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -4562,47 +4481,47 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>359</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K130">
-        <v>0.08582089552238806</v>
+        <v>0.08908045977011494</v>
       </c>
       <c r="L130">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="M130">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130">
-        <v>980</v>
+        <v>634</v>
       </c>
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K131">
-        <v>0.08469945355191257</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="L131">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M131">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N131">
         <v>1</v>
@@ -4614,151 +4533,151 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>335</v>
+        <v>360</v>
       </c>
     </row>
     <row r="132" spans="10:17">
       <c r="J132" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K132">
-        <v>0.07578558225508318</v>
+        <v>0.07011070110701106</v>
       </c>
       <c r="L132">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M132">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N132">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O132">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q132">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K133">
-        <v>0.07352941176470588</v>
+        <v>0.06601466992665037</v>
       </c>
       <c r="L133">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M133">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O133">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q133">
-        <v>252</v>
+        <v>382</v>
       </c>
     </row>
     <row r="134" spans="10:17">
       <c r="J134" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K134">
-        <v>0.07112970711297072</v>
+        <v>0.06336805555555555</v>
       </c>
       <c r="L134">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="M134">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O134">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q134">
-        <v>222</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="135" spans="10:17">
       <c r="J135" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K135">
-        <v>0.06326034063260341</v>
+        <v>0.06276150627615062</v>
       </c>
       <c r="L135">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M135">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N135">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O135">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q135">
-        <v>385</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="10:17">
       <c r="J136" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K136">
-        <v>0.06065857885615251</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="L136">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="M136">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="N136">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="O136">
-        <v>0.04000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="P136" t="b">
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>1084</v>
+        <v>276</v>
       </c>
     </row>
     <row r="137" spans="10:17">
       <c r="J137" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K137">
-        <v>0.05706521739130434</v>
+        <v>0.05791505791505792</v>
       </c>
       <c r="L137">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M137">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N137">
         <v>0.88</v>
@@ -4770,137 +4689,137 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>347</v>
+        <v>488</v>
       </c>
     </row>
     <row r="138" spans="10:17">
       <c r="J138" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K138">
-        <v>0.05566218809980806</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="L138">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M138">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N138">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="O138">
-        <v>0.03000000000000003</v>
+        <v>0.13</v>
       </c>
       <c r="P138" t="b">
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>492</v>
+        <v>342</v>
       </c>
     </row>
     <row r="139" spans="10:17">
       <c r="J139" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K139">
-        <v>0.05494505494505494</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="L139">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M139">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N139">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="O139">
-        <v>0.05000000000000004</v>
+        <v>0.16</v>
       </c>
       <c r="P139" t="b">
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="140" spans="10:17">
       <c r="J140" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K140">
-        <v>0.05423728813559322</v>
+        <v>0.04632152588555858</v>
       </c>
       <c r="L140">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M140">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N140">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O140">
-        <v>0.2</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P140" t="b">
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>279</v>
+        <v>350</v>
       </c>
     </row>
     <row r="141" spans="10:17">
       <c r="J141" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K141">
-        <v>0.03693931398416887</v>
+        <v>0.03412073490813648</v>
       </c>
       <c r="L141">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M141">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N141">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="O141">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="P141" t="b">
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>730</v>
+        <v>736</v>
       </c>
     </row>
     <row r="142" spans="10:17">
       <c r="J142" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K142">
-        <v>0.02188782489740082</v>
+        <v>0.02331961591220851</v>
       </c>
       <c r="L142">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M142">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N142">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="O142">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="P142" t="b">
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
